--- a/results/R_gene_lists/d14_LEC_subtype_markers.xlsx
+++ b/results/R_gene_lists/d14_LEC_subtype_markers.xlsx
@@ -10,15 +10,14 @@
     <sheet name="BEC" r:id="rId4" sheetId="2"/>
     <sheet name="mLEC" r:id="rId5" sheetId="3"/>
     <sheet name="fLEC" r:id="rId6" sheetId="4"/>
-    <sheet name="esLEC" r:id="rId7" sheetId="5"/>
-    <sheet name="iLEC" r:id="rId8" sheetId="6"/>
-    <sheet name="SC" r:id="rId9" sheetId="7"/>
+    <sheet name="iLEC" r:id="rId7" sheetId="5"/>
+    <sheet name="SC" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3687" uniqueCount="1610">
   <si>
     <t>p_val</t>
   </si>
@@ -4308,9 +4307,6 @@
   </si>
   <si>
     <t>Gata6</t>
-  </si>
-  <si>
-    <t>esLEC</t>
   </si>
   <si>
     <t>iLEC</t>
@@ -31286,25 +31282,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>9.190112100636013E-8</v>
+        <v>1.5576408404422982E-150</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4658783741584074</v>
+        <v>1.2102008455117244</v>
       </c>
       <c r="D2" t="n">
-        <v>0.691</v>
+        <v>0.42</v>
       </c>
       <c r="E2" t="n">
-        <v>0.674</v>
+        <v>0.01</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0028742994605949193</v>
+        <v>4.871677492567332E-146</v>
       </c>
       <c r="G2" t="s">
         <v>1430</v>
       </c>
       <c r="H2" t="s">
-        <v>1289</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="3">
@@ -31312,25 +31308,2391 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.4413775444929115E-7</v>
+        <v>1.9448429627047715E-91</v>
       </c>
       <c r="C3" t="n">
-        <v>0.41111460408675704</v>
+        <v>0.9061336353803887</v>
       </c>
       <c r="D3" t="n">
-        <v>0.674</v>
+        <v>0.259</v>
       </c>
       <c r="E3" t="n">
-        <v>0.666</v>
+        <v>0.006</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00450805240815603</v>
+        <v>6.082690850155443E-87</v>
       </c>
       <c r="G3" t="s">
         <v>1430</v>
       </c>
       <c r="H3" t="s">
-        <v>1291</v>
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.855928208355561E-80</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6324470654968659</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.804601064452853E-76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.1032795576284623E-78</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6640345851824129</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.4506171444387787E-74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.716381628485364E-71</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5589422042849373</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.1623355181250824E-66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.1198429140800455E-71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5918516950076332</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.288522069807675E-66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.8365891775034055E-67</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4997744384739847</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.871716311559651E-63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.7839759490924352E-65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5596158260492953</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.5795631783815E-61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.826622494288594E-64</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.43226297417651194</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.8223344513137006E-59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.205516389782468E-55</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.40115188094156157</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.770373060683647E-51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.592798589695564E-53</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3478091171613699</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.109236869131845E-49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.7751283937152017E-52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.39465412696059926</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8.679491564183665E-48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8.736628522514759E-51</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4195703122180747</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.732467936701716E-46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.087647653029713E-46</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.48279216456251406</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.278452679961573E-41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.6140788455122755E-46</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9466416915425173</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.0686192997224192E-41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.863063957846445E-45</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3514113849741712</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.5209718834560541E-40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.998698070503694E-45</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.27258568962346935</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.5633928085307354E-40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5.3544771757713936E-45</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3295210448453276</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.674666281494261E-40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.7336300300887183E-40</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5013483192811559</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.422101282105475E-36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.1405741178058778E-39</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5872593205065239</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.5672596108496635E-35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.0594485545884906E-39</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.2054244867783757</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.441131299330964E-35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.1844376368566036E-38</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8613652981484577</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.7044471530327134E-34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.6443160467224933E-38</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7124959226777985</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5.14276286772927E-34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.975189193443856E-38</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.31406521070827687</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.8688001721415004E-33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8.728752537559749E-38</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.518090774646677</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.7300046436471874E-33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.3430645951891788E-37</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3161821408157095</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.200568827913675E-33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.5322596207541096E-34</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.378057586408782</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.919895189870554E-30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.069332305624796E-31</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.672399025778463</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.585484371907211E-26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0752614669103777E-28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.44444261865790474</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.362987763908897E-24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.579146321593996E-28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.0781415883106726</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.568</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.7449338035417382E-23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5.43588974154293E-25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.35340726261128264</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.7001288755649666E-20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.497704468884899E-24</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4072182478236694</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7.811820496884409E-20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.456539788114207E-24</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5787659757031511</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.3938273841305994E-19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9.44036290121234E-21</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.3103982147338298</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.9525679009831714E-16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.0036169514839395E-19</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.1647029303584158</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.138912377461169E-15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.907169724222611E-19</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.825894908577516</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.964864029478638E-15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8.279132717859692E-19</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.2871980358941015</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.5893815488377973E-14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2.8016179337480025E-18</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9618981197128247</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8.762340249590253E-14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.165089531162552E-17</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.2101530346897904</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.6439340176639974E-13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7.71978182288455E-17</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7430218949850743</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.4144389629253717E-12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H41" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2.484879009986258E-15</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.006523208817719</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7.771707591633021E-11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2.5645334465980023E-15</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5416911054327924</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8.020834807579912E-11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2.6906879080465555E-15</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.0979608125109332</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.415395501206407E-11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H44" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.702645403272679E-14</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9816453586279803</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5.325193763275631E-10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.1170985167589339E-13</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9666747346162404</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.493837321015242E-9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.2702727063077714E-13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.3328171238944972</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7.100504916248186E-9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2.8529603209508267E-13</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.4690975010180758</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8.922918699805805E-9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H48" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.4420288912685448E-12</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8091285810701928</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.510089560331501E-8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.5452889122143066E-12</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5685281000693745</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.833045601841465E-8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.649176143343389E-12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.642725452116838</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.4540763305920783E-7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8.47438233987984E-12</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5684698949533818</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.650447820620819E-7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2.5549326412704348E-11</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.36484863534999895</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7.990807328837412E-7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.989837690454992E-11</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.3472848420478118</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.2478616360667033E-6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.1552869080811465E-11</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5313921552751495</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.2996075333714594E-6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H55" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8.342689433938859E-11</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5109698184237071</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.6092595473587177E-6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5.842845045776091E-10</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8260838256921641</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.8274082165169303E-5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6.933816561046268E-10</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.4737637303466451</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.1686204676328307E-5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H58" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="n">
+        <v>7.416630244066974E-10</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.4383174698972985</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.3196252751343868E-5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.4398628468252886E-9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.8053957716948903</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4.503315039730773E-5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.4761398538830687E-9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.2818592728662401</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.616775007004686E-5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H61" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.7725871313200219E-9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.705821803934508</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5.5439435119165005E-5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.8648962303017265E-9</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.32935735524708826</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5.83264944989168E-5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.994367763581764E-9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5901620245157264</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6.237584617378325E-5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.3813992561639293E-9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.7995765847359941</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7.448064313578305E-5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.816848066624425E-9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5482698663558128</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.5065174013174551E-4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6.9208575182590124E-9</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.30436191341194524</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.1645673974106887E-4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H67" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="n">
+        <v>7.2170557958432245E-9</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.44172534770368144</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.2572063707079269E-4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="n">
+        <v>7.778366569235204E-9</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6521384137412047</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.4327619281940024E-4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H69" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9.728728160506781E-9</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.37228323656271967</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3.042757019480101E-4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.825334035141871E-8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5688835902580274</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.708914728309716E-4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2.722146652225343E-8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.44669807801400263</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8.513785869499982E-4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.730709710991818E-8</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.3048056162560504</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.001166816769209801</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.8996873496413225E-8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.3918651841279135</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.00121966621547382</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.913676821500444E-8</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.7309312296093384</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.001224041562692479</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4.895573634802757E-8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.7688757791039411</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0015311396100209102</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.5924066216044946E-7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.4564607688365571</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.004980410949730217</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.0505435073029805E-7</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.47777927664497993</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0064132798734408015</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.3887650466254854E-7</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.29179306884756645</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.007471101559825868</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H79" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.4139037434552036E-7</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.4798965751416897</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.007549725348030494</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2.488243206138954E-7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.8316693868857153</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.007782229451520193</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2.890114505307998E-7</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.6324346468603812</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.009039122126801295</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3.62432735762641E-7</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.3331439944663648</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.01133544624371236</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3.963409230091376E-7</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5800647417504277</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.012395958708033788</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.0965216640111053E-7</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.6616371723386969</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.012812281156361132</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5.816915111326966E-7</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.5052556555443325</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01819298370218622</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6.259299475224382E-7</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.4114628672277096</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.019576585038711777</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.14202072620449E-7</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5690886596798725</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.022337384023277163</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.0053009295161866E-6</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.4797313850337711</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.031441791871548254</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H89" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.0188870074999172E-6</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.45938441221379717</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.03186671004656741</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H90" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.0473943363710116E-6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.6337767279365631</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.03275830526433976</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.1798111033745942E-6</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.527029108674389</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.036899772069143806</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.3789345587187179E-6</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.49973768530693197</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.04312755725848662</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.4469283675342058E-6</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.7797334536651999</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.04525413162299982</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
@@ -31375,25 +33737,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5576408404422982E-150</v>
+        <v>7.701565293436638E-210</v>
       </c>
       <c r="C2" t="n">
-        <v>1.2102008455117244</v>
+        <v>3.053880594605144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.42</v>
+        <v>0.518</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="F2" t="n">
-        <v>4.871677492567332E-146</v>
+        <v>2.408741561175243E-205</v>
       </c>
       <c r="G2" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H2" t="s">
-        <v>1432</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="3">
@@ -31401,25 +33763,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.9448429627047715E-91</v>
+        <v>1.255694126034198E-156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9061336353803887</v>
+        <v>1.1059783731634572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.259</v>
+        <v>0.214</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.082690850155443E-87</v>
+        <v>3.927308948584558E-152</v>
       </c>
       <c r="G3" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H3" t="s">
-        <v>1433</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="4">
@@ -31427,25 +33789,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.855928208355561E-80</v>
+        <v>1.05990888551268E-143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6324470654968659</v>
+        <v>1.1317157048628936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.148</v>
+        <v>0.196</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>5.804601064452853E-76</v>
+        <v>3.3149710303294577E-139</v>
       </c>
       <c r="G4" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H4" t="s">
-        <v>1434</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="5">
@@ -31453,25 +33815,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.1032795576284623E-78</v>
+        <v>1.776645494494359E-141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6640345851824129</v>
+        <v>1.8083965259720507</v>
       </c>
       <c r="D5" t="n">
-        <v>0.173</v>
+        <v>0.339</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="F5" t="n">
-        <v>3.4506171444387787E-74</v>
+        <v>5.556636448580557E-137</v>
       </c>
       <c r="G5" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H5" t="s">
-        <v>1435</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="6">
@@ -31479,25 +33841,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>3.716381628485364E-71</v>
+        <v>1.2696119115449584E-126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5589422042849373</v>
+        <v>1.569104427525907</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.268</v>
       </c>
       <c r="E6" t="n">
         <v>0.002</v>
       </c>
       <c r="F6" t="n">
-        <v>1.1623355181250824E-66</v>
+        <v>3.970838214548012E-122</v>
       </c>
       <c r="G6" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H6" t="s">
-        <v>1436</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="7">
@@ -31505,25 +33867,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>4.1198429140800455E-71</v>
+        <v>3.6545111687843606E-119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5918516950076332</v>
+        <v>1.6033332012868031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.148</v>
+        <v>0.321</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="F7" t="n">
-        <v>1.288522069807675E-66</v>
+        <v>1.1429849131489966E-114</v>
       </c>
       <c r="G7" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H7" t="s">
-        <v>1437</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="8">
@@ -31531,25 +33893,25 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>2.8365891775034055E-67</v>
+        <v>1.8159998473275518E-109</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4997744384739847</v>
+        <v>1.3697575956919257</v>
       </c>
       <c r="D8" t="n">
-        <v>0.148</v>
+        <v>0.232</v>
       </c>
       <c r="E8" t="n">
         <v>0.002</v>
       </c>
       <c r="F8" t="n">
-        <v>8.871716311559651E-63</v>
+        <v>5.679721122501651E-105</v>
       </c>
       <c r="G8" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H8" t="s">
-        <v>1438</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="9">
@@ -31557,25 +33919,25 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1.7839759490924352E-65</v>
+        <v>1.7347578192242123E-106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5596158260492953</v>
+        <v>1.7346488556484874</v>
       </c>
       <c r="D9" t="n">
-        <v>0.185</v>
+        <v>0.286</v>
       </c>
       <c r="E9" t="n">
         <v>0.005</v>
       </c>
       <c r="F9" t="n">
-        <v>5.5795631783815E-61</v>
+        <v>5.425628555405647E-102</v>
       </c>
       <c r="G9" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H9" t="s">
-        <v>1439</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="10">
@@ -31583,25 +33945,25 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>5.826622494288594E-64</v>
+        <v>7.137911037712684E-97</v>
       </c>
       <c r="C10" t="n">
-        <v>0.43226297417651194</v>
+        <v>2.114439113943082</v>
       </c>
       <c r="D10" t="n">
-        <v>0.123</v>
+        <v>0.429</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001</v>
+        <v>0.016</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8223344513137006E-59</v>
+        <v>2.232453056155019E-92</v>
       </c>
       <c r="G10" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H10" t="s">
-        <v>1440</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="11">
@@ -31609,25 +33971,25 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1.205516389782468E-55</v>
+        <v>3.5875407425132285E-96</v>
       </c>
       <c r="C11" t="n">
-        <v>0.40115188094156157</v>
+        <v>0.6769760792984963</v>
       </c>
       <c r="D11" t="n">
-        <v>0.123</v>
+        <v>0.161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F11" t="n">
-        <v>3.770373060683647E-51</v>
+        <v>1.1220392426284373E-91</v>
       </c>
       <c r="G11" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H11" t="s">
-        <v>1441</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="12">
@@ -31635,25 +33997,25 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>2.592798589695564E-53</v>
+        <v>4.031681213422158E-93</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3478091171613699</v>
+        <v>0.7930434480354789</v>
       </c>
       <c r="D12" t="n">
-        <v>0.136</v>
+        <v>0.143</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003</v>
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>8.109236869131845E-49</v>
+        <v>1.260948616309914E-88</v>
       </c>
       <c r="G12" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H12" t="s">
-        <v>1442</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="13">
@@ -31661,25 +34023,25 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>2.7751283937152017E-52</v>
+        <v>4.990089306816319E-93</v>
       </c>
       <c r="C13" t="n">
-        <v>0.39465412696059926</v>
+        <v>1.2105596140134682</v>
       </c>
       <c r="D13" t="n">
-        <v>0.123</v>
+        <v>0.214</v>
       </c>
       <c r="E13" t="n">
         <v>0.002</v>
       </c>
       <c r="F13" t="n">
-        <v>8.679491564183665E-48</v>
+        <v>1.5607003315998717E-88</v>
       </c>
       <c r="G13" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H13" t="s">
-        <v>1443</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="14">
@@ -31687,25 +34049,25 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>8.736628522514759E-51</v>
+        <v>5.292843952480778E-93</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4195703122180747</v>
+        <v>2.6626683341037594</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136</v>
+        <v>0.446</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003</v>
+        <v>0.018</v>
       </c>
       <c r="F14" t="n">
-        <v>2.732467936701716E-46</v>
+        <v>1.655389874577888E-88</v>
       </c>
       <c r="G14" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H14" t="s">
-        <v>1444</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="15">
@@ -31713,25 +34075,25 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>4.087647653029713E-46</v>
+        <v>4.748207919182691E-92</v>
       </c>
       <c r="C15" t="n">
-        <v>0.48279216456251406</v>
+        <v>0.6896783772441857</v>
       </c>
       <c r="D15" t="n">
-        <v>0.136</v>
+        <v>0.125</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.278452679961573E-41</v>
+        <v>1.4850495088035784E-87</v>
       </c>
       <c r="G15" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H15" t="s">
-        <v>1445</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="16">
@@ -31739,25 +34101,25 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>6.6140788455122755E-46</v>
+        <v>4.0805466963841857E-88</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9466416915425173</v>
+        <v>0.9174907368861649</v>
       </c>
       <c r="D16" t="n">
-        <v>0.259</v>
+        <v>0.161</v>
       </c>
       <c r="E16" t="n">
-        <v>0.018</v>
+        <v>0.001</v>
       </c>
       <c r="F16" t="n">
-        <v>2.0686192997224192E-41</v>
+        <v>1.2762317847611179E-83</v>
       </c>
       <c r="G16" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H16" t="s">
-        <v>1446</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="17">
@@ -31765,25 +34127,25 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>4.863063957846445E-45</v>
+        <v>7.258772694712293E-88</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3514113849741712</v>
+        <v>1.6162849315473833</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111</v>
+        <v>0.304</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="F17" t="n">
-        <v>1.5209718834560541E-40</v>
+        <v>2.2702537479982167E-83</v>
       </c>
       <c r="G17" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H17" t="s">
-        <v>1447</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="18">
@@ -31791,25 +34153,25 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>4.998698070503694E-45</v>
+        <v>1.317010341376002E-84</v>
       </c>
       <c r="C18" t="n">
-        <v>0.27258568962346935</v>
+        <v>2.4463052637210723</v>
       </c>
       <c r="D18" t="n">
-        <v>0.111</v>
+        <v>0.446</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002</v>
+        <v>0.021</v>
       </c>
       <c r="F18" t="n">
-        <v>1.5633928085307354E-40</v>
+        <v>4.119081543687584E-80</v>
       </c>
       <c r="G18" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H18" t="s">
-        <v>1448</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="19">
@@ -31817,25 +34179,25 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>5.3544771757713936E-45</v>
+        <v>8.435565774058054E-84</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3295210448453276</v>
+        <v>0.6864607534320515</v>
       </c>
       <c r="D19" t="n">
-        <v>0.111</v>
+        <v>0.143</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F19" t="n">
-        <v>1.674666281494261E-40</v>
+        <v>2.638307551494397E-79</v>
       </c>
       <c r="G19" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H19" t="s">
-        <v>1449</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="20">
@@ -31843,25 +34205,25 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>1.7336300300887183E-40</v>
+        <v>1.675504004886614E-80</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5013483192811559</v>
+        <v>1.6709533573625173</v>
       </c>
       <c r="D20" t="n">
-        <v>0.136</v>
+        <v>0.232</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="F20" t="n">
-        <v>5.422101282105475E-36</v>
+        <v>5.240306325683374E-76</v>
       </c>
       <c r="G20" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H20" t="s">
-        <v>1450</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="21">
@@ -31869,25 +34231,25 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>1.1405741178058778E-39</v>
+        <v>1.3523502231126168E-79</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5872593205065239</v>
+        <v>1.964638830246369</v>
       </c>
       <c r="D21" t="n">
-        <v>0.198</v>
+        <v>0.321</v>
       </c>
       <c r="E21" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="F21" t="n">
-        <v>3.5672596108496635E-35</v>
+        <v>4.2296105578070203E-75</v>
       </c>
       <c r="G21" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H21" t="s">
-        <v>1451</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="22">
@@ -31895,25 +34257,25 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>2.0594485545884906E-39</v>
+        <v>3.7936227432473484E-79</v>
       </c>
       <c r="C22" t="n">
-        <v>2.2054244867783757</v>
+        <v>1.0467905052865603</v>
       </c>
       <c r="D22" t="n">
-        <v>0.321</v>
+        <v>0.107</v>
       </c>
       <c r="E22" t="n">
-        <v>0.034</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n">
-        <v>6.441131299330964E-35</v>
+        <v>1.1864934491780407E-74</v>
       </c>
       <c r="G22" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H22" t="s">
-        <v>1059</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="23">
@@ -31921,25 +34283,25 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>1.1844376368566036E-38</v>
+        <v>3.7936227432473484E-79</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8613652981484577</v>
+        <v>0.8714491675313606</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222</v>
+        <v>0.107</v>
       </c>
       <c r="E23" t="n">
-        <v>0.016</v>
+        <v>0.0</v>
       </c>
       <c r="F23" t="n">
-        <v>3.7044471530327134E-34</v>
+        <v>1.1864934491780407E-74</v>
       </c>
       <c r="G23" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H23" t="s">
-        <v>1452</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="24">
@@ -31947,25 +34309,25 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>1.6443160467224933E-38</v>
+        <v>3.7936227432473484E-79</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7124959226777985</v>
+        <v>0.7819826172493988</v>
       </c>
       <c r="D24" t="n">
-        <v>0.309</v>
+        <v>0.107</v>
       </c>
       <c r="E24" t="n">
-        <v>0.031</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>5.14276286772927E-34</v>
+        <v>1.1864934491780407E-74</v>
       </c>
       <c r="G24" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H24" t="s">
-        <v>1453</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="25">
@@ -31973,25 +34335,25 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>5.975189193443856E-38</v>
+        <v>4.643299357974429E-76</v>
       </c>
       <c r="C25" t="n">
-        <v>0.31406521070827687</v>
+        <v>0.7888128320128232</v>
       </c>
       <c r="D25" t="n">
-        <v>0.123</v>
+        <v>0.143</v>
       </c>
       <c r="E25" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F25" t="n">
-        <v>1.8688001721415004E-33</v>
+        <v>1.4522383072000825E-71</v>
       </c>
       <c r="G25" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H25" t="s">
-        <v>1454</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="26">
@@ -31999,25 +34361,25 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>8.728752537559749E-38</v>
+        <v>5.206811783008224E-72</v>
       </c>
       <c r="C26" t="n">
-        <v>0.518090774646677</v>
+        <v>2.7813917136613124</v>
       </c>
       <c r="D26" t="n">
-        <v>0.198</v>
+        <v>0.554</v>
       </c>
       <c r="E26" t="n">
-        <v>0.012</v>
+        <v>0.042</v>
       </c>
       <c r="F26" t="n">
-        <v>2.7300046436471874E-33</v>
+        <v>1.6284824532536522E-67</v>
       </c>
       <c r="G26" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H26" t="s">
-        <v>1455</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="27">
@@ -32025,25 +34387,25 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>1.3430645951891788E-37</v>
+        <v>8.835240704184408E-68</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3161821408157095</v>
+        <v>0.8995479157109902</v>
       </c>
       <c r="D27" t="n">
-        <v>0.111</v>
+        <v>0.107</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n">
-        <v>4.200568827913675E-33</v>
+        <v>2.763309882640715E-63</v>
       </c>
       <c r="G27" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H27" t="s">
-        <v>1456</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="28">
@@ -32051,25 +34413,25 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>2.5322596207541096E-34</v>
+        <v>9.394393163950475E-68</v>
       </c>
       <c r="C28" t="n">
-        <v>0.378057586408782</v>
+        <v>0.6478057797313301</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185</v>
+        <v>0.107</v>
       </c>
       <c r="E28" t="n">
-        <v>0.012</v>
+        <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>7.919895189870554E-30</v>
+        <v>2.9381904059571507E-63</v>
       </c>
       <c r="G28" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H28" t="s">
-        <v>1457</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="29">
@@ -32077,25 +34439,25 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>5.069332305624796E-31</v>
+        <v>7.46815902452533E-65</v>
       </c>
       <c r="C29" t="n">
-        <v>0.672399025778463</v>
+        <v>1.0984427634772502</v>
       </c>
       <c r="D29" t="n">
-        <v>0.123</v>
+        <v>0.196</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="F29" t="n">
-        <v>1.585484371907211E-26</v>
+        <v>2.3357414165105421E-60</v>
       </c>
       <c r="G29" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H29" t="s">
-        <v>1458</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="30">
@@ -32103,25 +34465,25 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>1.0752614669103777E-28</v>
+        <v>3.047541279394487E-64</v>
       </c>
       <c r="C30" t="n">
-        <v>0.44444261865790474</v>
+        <v>1.289290893537723</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21</v>
+        <v>0.143</v>
       </c>
       <c r="E30" t="n">
-        <v>0.019</v>
+        <v>0.002</v>
       </c>
       <c r="F30" t="n">
-        <v>3.362987763908897E-24</v>
+        <v>9.531490105434196E-60</v>
       </c>
       <c r="G30" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H30" t="s">
-        <v>1459</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="31">
@@ -32129,25 +34491,25 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>5.579146321593996E-28</v>
+        <v>3.067031640989436E-59</v>
       </c>
       <c r="C31" t="n">
-        <v>2.0781415883106726</v>
+        <v>0.7820240503127325</v>
       </c>
       <c r="D31" t="n">
-        <v>0.568</v>
+        <v>0.107</v>
       </c>
       <c r="E31" t="n">
-        <v>0.154</v>
+        <v>0.001</v>
       </c>
       <c r="F31" t="n">
-        <v>1.7449338035417382E-23</v>
+        <v>9.59244816035856E-55</v>
       </c>
       <c r="G31" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H31" t="s">
-        <v>1023</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="32">
@@ -32155,25 +34517,25 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>5.43588974154293E-25</v>
+        <v>4.496026075977103E-59</v>
       </c>
       <c r="C32" t="n">
-        <v>0.35340726261128264</v>
+        <v>2.1253297043537605</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123</v>
+        <v>0.339</v>
       </c>
       <c r="E32" t="n">
-        <v>0.007</v>
+        <v>0.018</v>
       </c>
       <c r="F32" t="n">
-        <v>1.7001288755649666E-20</v>
+        <v>1.4061771155225987E-54</v>
       </c>
       <c r="G32" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H32" t="s">
-        <v>1460</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="33">
@@ -32181,25 +34543,25 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>2.497704468884899E-24</v>
+        <v>2.3284328932836253E-58</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4072182478236694</v>
+        <v>1.1678299335607056</v>
       </c>
       <c r="D33" t="n">
-        <v>0.123</v>
+        <v>0.161</v>
       </c>
       <c r="E33" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="F33" t="n">
-        <v>7.811820496884409E-20</v>
+        <v>7.282406717033867E-54</v>
       </c>
       <c r="G33" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H33" t="s">
-        <v>1461</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="34">
@@ -32207,25 +34569,25 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>4.456539788114207E-24</v>
+        <v>4.057965619969637E-55</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5787659757031511</v>
+        <v>0.9691299896261573</v>
       </c>
       <c r="D34" t="n">
-        <v>0.111</v>
+        <v>0.161</v>
       </c>
       <c r="E34" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="F34" t="n">
-        <v>1.3938273841305994E-19</v>
+        <v>1.2691693273017036E-50</v>
       </c>
       <c r="G34" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H34" t="s">
-        <v>1462</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="35">
@@ -32233,25 +34595,25 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>9.44036290121234E-21</v>
+        <v>2.079806910192427E-52</v>
       </c>
       <c r="C35" t="n">
-        <v>1.3103982147338298</v>
+        <v>1.1885004180303864</v>
       </c>
       <c r="D35" t="n">
-        <v>0.321</v>
+        <v>0.161</v>
       </c>
       <c r="E35" t="n">
-        <v>0.064</v>
+        <v>0.003</v>
       </c>
       <c r="F35" t="n">
-        <v>2.9525679009831714E-16</v>
+        <v>6.504804092317835E-48</v>
       </c>
       <c r="G35" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H35" t="s">
-        <v>1463</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="36">
@@ -32259,25 +34621,25 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>1.0036169514839395E-19</v>
+        <v>5.382118203275515E-52</v>
       </c>
       <c r="C36" t="n">
-        <v>1.1647029303584158</v>
+        <v>0.9138402543504045</v>
       </c>
       <c r="D36" t="n">
-        <v>0.111</v>
+        <v>0.143</v>
       </c>
       <c r="E36" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="F36" t="n">
-        <v>3.138912377461169E-15</v>
+        <v>1.6833112892564501E-47</v>
       </c>
       <c r="G36" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H36" t="s">
-        <v>1464</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="37">
@@ -32285,25 +34647,25 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>1.907169724222611E-19</v>
+        <v>5.57652581151096E-52</v>
       </c>
       <c r="C37" t="n">
-        <v>0.825894908577516</v>
+        <v>1.1020402082330438</v>
       </c>
       <c r="D37" t="n">
-        <v>0.321</v>
+        <v>0.143</v>
       </c>
       <c r="E37" t="n">
-        <v>0.066</v>
+        <v>0.002</v>
       </c>
       <c r="F37" t="n">
-        <v>5.964864029478638E-15</v>
+        <v>1.7441142128081679E-47</v>
       </c>
       <c r="G37" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H37" t="s">
-        <v>1465</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="38">
@@ -32311,25 +34673,25 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>8.279132717859692E-19</v>
+        <v>1.3110519429979957E-51</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2871980358941015</v>
+        <v>1.0519887079409957</v>
       </c>
       <c r="D38" t="n">
-        <v>0.111</v>
+        <v>0.196</v>
       </c>
       <c r="E38" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="F38" t="n">
-        <v>2.5893815488377973E-14</v>
+        <v>4.1004460569205315E-47</v>
       </c>
       <c r="G38" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H38" t="s">
-        <v>1466</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="39">
@@ -32337,25 +34699,25 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>2.8016179337480025E-18</v>
+        <v>1.5510520713174643E-51</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9618981197128247</v>
+        <v>1.1868855553915238</v>
       </c>
       <c r="D39" t="n">
-        <v>0.42</v>
+        <v>0.196</v>
       </c>
       <c r="E39" t="n">
-        <v>0.115</v>
+        <v>0.006</v>
       </c>
       <c r="F39" t="n">
-        <v>8.762340249590253E-14</v>
+        <v>4.851070458252501E-47</v>
       </c>
       <c r="G39" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H39" t="s">
-        <v>1467</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="40">
@@ -32363,25 +34725,25 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>1.165089531162552E-17</v>
+        <v>2.6929234190320594E-48</v>
       </c>
       <c r="C40" t="n">
-        <v>1.2101530346897904</v>
+        <v>1.2029214542717017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.272</v>
+        <v>0.196</v>
       </c>
       <c r="E40" t="n">
-        <v>0.054</v>
+        <v>0.006</v>
       </c>
       <c r="F40" t="n">
-        <v>3.6439340176639974E-13</v>
+        <v>8.422387285364669E-44</v>
       </c>
       <c r="G40" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H40" t="s">
-        <v>1041</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="41">
@@ -32389,25 +34751,25 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>7.71978182288455E-17</v>
+        <v>2.1836365173116274E-47</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7430218949850743</v>
+        <v>1.0613581437048711</v>
       </c>
       <c r="D41" t="n">
-        <v>0.296</v>
+        <v>0.161</v>
       </c>
       <c r="E41" t="n">
-        <v>0.062</v>
+        <v>0.004</v>
       </c>
       <c r="F41" t="n">
-        <v>2.4144389629253717E-12</v>
+        <v>6.829541571543846E-43</v>
       </c>
       <c r="G41" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H41" t="s">
-        <v>861</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="42">
@@ -32415,25 +34777,25 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>2.484879009986258E-15</v>
+        <v>1.3950560578630377E-45</v>
       </c>
       <c r="C42" t="n">
-        <v>1.006523208817719</v>
+        <v>0.7017543286531076</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296</v>
+        <v>0.125</v>
       </c>
       <c r="E42" t="n">
-        <v>0.071</v>
+        <v>0.002</v>
       </c>
       <c r="F42" t="n">
-        <v>7.771707591633021E-11</v>
+        <v>4.3631773265724367E-41</v>
       </c>
       <c r="G42" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H42" t="s">
-        <v>1468</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="43">
@@ -32441,25 +34803,25 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>2.5645334465980023E-15</v>
+        <v>7.899080935103243E-44</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5416911054327924</v>
+        <v>1.2923139111433732</v>
       </c>
       <c r="D43" t="n">
-        <v>0.173</v>
+        <v>0.25</v>
       </c>
       <c r="E43" t="n">
-        <v>0.025</v>
+        <v>0.013</v>
       </c>
       <c r="F43" t="n">
-        <v>8.020834807579912E-11</v>
+        <v>2.4705165532628902E-39</v>
       </c>
       <c r="G43" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H43" t="s">
-        <v>1469</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="44">
@@ -32467,25 +34829,25 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>2.6906879080465555E-15</v>
+        <v>5.338129976144993E-43</v>
       </c>
       <c r="C44" t="n">
-        <v>2.0979608125109332</v>
+        <v>1.5412221148928122</v>
       </c>
       <c r="D44" t="n">
-        <v>0.309</v>
+        <v>0.107</v>
       </c>
       <c r="E44" t="n">
-        <v>0.077</v>
+        <v>0.002</v>
       </c>
       <c r="F44" t="n">
-        <v>8.415395501206407E-11</v>
+        <v>1.6695535313391078E-38</v>
       </c>
       <c r="G44" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H44" t="s">
-        <v>860</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="45">
@@ -32493,25 +34855,25 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>1.702645403272679E-14</v>
+        <v>1.0871303889543464E-42</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9816453586279803</v>
+        <v>1.2382752148304468</v>
       </c>
       <c r="D45" t="n">
-        <v>0.296</v>
+        <v>0.179</v>
       </c>
       <c r="E45" t="n">
-        <v>0.072</v>
+        <v>0.006</v>
       </c>
       <c r="F45" t="n">
-        <v>5.325193763275631E-10</v>
+        <v>3.4001090044936135E-38</v>
       </c>
       <c r="G45" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H45" t="s">
-        <v>1470</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="46">
@@ -32519,25 +34881,25 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>1.1170985167589339E-13</v>
+        <v>1.3629014719661062E-42</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9666747346162404</v>
+        <v>0.9100668295810691</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222</v>
+        <v>0.196</v>
       </c>
       <c r="E46" t="n">
-        <v>0.046</v>
+        <v>0.008</v>
       </c>
       <c r="F46" t="n">
-        <v>3.493837321015242E-9</v>
+        <v>4.262610643721194E-38</v>
       </c>
       <c r="G46" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H46" t="s">
-        <v>1471</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="47">
@@ -32545,25 +34907,25 @@
         <v>52</v>
       </c>
       <c r="B47" t="n">
-        <v>2.2702727063077714E-13</v>
+        <v>6.635790311964731E-42</v>
       </c>
       <c r="C47" t="n">
-        <v>1.3328171238944972</v>
+        <v>2.2201619018692385</v>
       </c>
       <c r="D47" t="n">
-        <v>0.432</v>
+        <v>0.357</v>
       </c>
       <c r="E47" t="n">
-        <v>0.155</v>
+        <v>0.03</v>
       </c>
       <c r="F47" t="n">
-        <v>7.100504916248186E-9</v>
+        <v>2.075409777970089E-37</v>
       </c>
       <c r="G47" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H47" t="s">
-        <v>1472</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="48">
@@ -32571,25 +34933,25 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>2.8529603209508267E-13</v>
+        <v>1.0987865750769619E-41</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4690975010180758</v>
+        <v>1.3140086821353198</v>
       </c>
       <c r="D48" t="n">
-        <v>0.198</v>
+        <v>0.161</v>
       </c>
       <c r="E48" t="n">
-        <v>0.036</v>
+        <v>0.005</v>
       </c>
       <c r="F48" t="n">
-        <v>8.922918699805805E-9</v>
+        <v>3.436564892210706E-37</v>
       </c>
       <c r="G48" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H48" t="s">
-        <v>887</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="49">
@@ -32597,25 +34959,25 @@
         <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>1.4420288912685448E-12</v>
+        <v>3.1002840005083153E-41</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8091285810701928</v>
+        <v>1.542561737888883</v>
       </c>
       <c r="D49" t="n">
-        <v>0.259</v>
+        <v>0.214</v>
       </c>
       <c r="E49" t="n">
-        <v>0.064</v>
+        <v>0.01</v>
       </c>
       <c r="F49" t="n">
-        <v>4.510089560331501E-8</v>
+        <v>9.696448239989808E-37</v>
       </c>
       <c r="G49" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H49" t="s">
-        <v>1473</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="50">
@@ -32623,25 +34985,25 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>1.5452889122143066E-12</v>
+        <v>2.328588862154507E-40</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5685281000693745</v>
+        <v>1.2756718023856168</v>
       </c>
       <c r="D50" t="n">
-        <v>0.235</v>
+        <v>0.196</v>
       </c>
       <c r="E50" t="n">
-        <v>0.052</v>
+        <v>0.008</v>
       </c>
       <c r="F50" t="n">
-        <v>4.833045601841465E-8</v>
+        <v>7.282894525274435E-36</v>
       </c>
       <c r="G50" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H50" t="s">
-        <v>1474</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="51">
@@ -32649,25 +35011,25 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>4.649176143343389E-12</v>
+        <v>3.060049551548435E-39</v>
       </c>
       <c r="C51" t="n">
-        <v>0.642725452116838</v>
+        <v>1.336555081779071</v>
       </c>
       <c r="D51" t="n">
-        <v>0.407</v>
+        <v>0.232</v>
       </c>
       <c r="E51" t="n">
-        <v>0.14</v>
+        <v>0.012</v>
       </c>
       <c r="F51" t="n">
-        <v>1.4540763305920783E-7</v>
+        <v>9.570610977422886E-35</v>
       </c>
       <c r="G51" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H51" t="s">
-        <v>1475</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="52">
@@ -32675,25 +35037,25 @@
         <v>57</v>
       </c>
       <c r="B52" t="n">
-        <v>8.47438233987984E-12</v>
+        <v>3.920132620500882E-39</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5684698949533818</v>
+        <v>2.170828449897045</v>
       </c>
       <c r="D52" t="n">
-        <v>0.185</v>
+        <v>0.232</v>
       </c>
       <c r="E52" t="n">
-        <v>0.036</v>
+        <v>0.012</v>
       </c>
       <c r="F52" t="n">
-        <v>2.650447820620819E-7</v>
+        <v>1.2260606783878557E-34</v>
       </c>
       <c r="G52" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H52" t="s">
-        <v>1476</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="53">
@@ -32701,25 +35063,25 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>2.5549326412704348E-11</v>
+        <v>8.626723072541224E-38</v>
       </c>
       <c r="C53" t="n">
-        <v>0.36484863534999895</v>
+        <v>1.515935277376142</v>
       </c>
       <c r="D53" t="n">
-        <v>0.111</v>
+        <v>0.232</v>
       </c>
       <c r="E53" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="F53" t="n">
-        <v>7.990807328837412E-7</v>
+        <v>2.6980939081679933E-33</v>
       </c>
       <c r="G53" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H53" t="s">
-        <v>1477</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="54">
@@ -32727,25 +35089,25 @@
         <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>3.989837690454992E-11</v>
+        <v>4.12152114105368E-37</v>
       </c>
       <c r="C54" t="n">
-        <v>1.3472848420478118</v>
+        <v>1.501895951916069</v>
       </c>
       <c r="D54" t="n">
-        <v>0.284</v>
+        <v>0.232</v>
       </c>
       <c r="E54" t="n">
-        <v>0.085</v>
+        <v>0.013</v>
       </c>
       <c r="F54" t="n">
-        <v>1.2478616360667033E-6</v>
+        <v>1.2890469520759489E-32</v>
       </c>
       <c r="G54" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H54" t="s">
-        <v>1478</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="55">
@@ -32753,25 +35115,25 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>4.1552869080811465E-11</v>
+        <v>7.690034582795695E-37</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5313921552751495</v>
+        <v>1.1274138038576575</v>
       </c>
       <c r="D55" t="n">
-        <v>0.296</v>
+        <v>0.161</v>
       </c>
       <c r="E55" t="n">
-        <v>0.084</v>
+        <v>0.006</v>
       </c>
       <c r="F55" t="n">
-        <v>1.2996075333714594E-6</v>
+        <v>2.4051352161151815E-32</v>
       </c>
       <c r="G55" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H55" t="s">
-        <v>737</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="56">
@@ -32779,25 +35141,25 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>8.342689433938859E-11</v>
+        <v>2.3972157693578125E-35</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5109698184237071</v>
+        <v>0.9313118014189571</v>
       </c>
       <c r="D56" t="n">
-        <v>0.148</v>
+        <v>0.125</v>
       </c>
       <c r="E56" t="n">
-        <v>0.026</v>
+        <v>0.003</v>
       </c>
       <c r="F56" t="n">
-        <v>2.6092595473587177E-6</v>
+        <v>7.497532040243494E-31</v>
       </c>
       <c r="G56" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H56" t="s">
-        <v>1479</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="57">
@@ -32805,25 +35167,25 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>5.842845045776091E-10</v>
+        <v>3.16991671847707E-35</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8260838256921641</v>
+        <v>1.1592389830955423</v>
       </c>
       <c r="D57" t="n">
-        <v>0.58</v>
+        <v>0.179</v>
       </c>
       <c r="E57" t="n">
-        <v>0.298</v>
+        <v>0.008</v>
       </c>
       <c r="F57" t="n">
-        <v>1.8274082165169303E-5</v>
+        <v>9.914231528708885E-31</v>
       </c>
       <c r="G57" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H57" t="s">
-        <v>1046</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="58">
@@ -32831,25 +35193,25 @@
         <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>6.933816561046268E-10</v>
+        <v>1.2155756511796722E-33</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4737637303466451</v>
+        <v>0.7421969543595032</v>
       </c>
       <c r="D58" t="n">
-        <v>0.173</v>
+        <v>0.107</v>
       </c>
       <c r="E58" t="n">
-        <v>0.037</v>
+        <v>0.002</v>
       </c>
       <c r="F58" t="n">
-        <v>2.1686204676328307E-5</v>
+        <v>3.801834406629543E-29</v>
       </c>
       <c r="G58" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H58" t="s">
-        <v>859</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="59">
@@ -32857,25 +35219,25 @@
         <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>7.416630244066974E-10</v>
+        <v>7.94840385771216E-33</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4383174698972985</v>
+        <v>0.8481328496410585</v>
       </c>
       <c r="D59" t="n">
-        <v>0.123</v>
+        <v>0.143</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="F59" t="n">
-        <v>2.3196252751343868E-5</v>
+        <v>2.485942790538055E-28</v>
       </c>
       <c r="G59" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H59" t="s">
-        <v>1480</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="60">
@@ -32883,25 +35245,25 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>1.4398628468252886E-9</v>
+        <v>2.193544134186445E-31</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8053957716948903</v>
+        <v>1.154336262504665</v>
       </c>
       <c r="D60" t="n">
-        <v>0.753</v>
+        <v>0.107</v>
       </c>
       <c r="E60" t="n">
-        <v>0.471</v>
+        <v>0.003</v>
       </c>
       <c r="F60" t="n">
-        <v>4.503315039730773E-5</v>
+        <v>6.860528634081525E-27</v>
       </c>
       <c r="G60" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H60" t="s">
-        <v>1481</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="61">
@@ -32909,25 +35271,25 @@
         <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>1.4761398538830687E-9</v>
+        <v>4.718227816980046E-30</v>
       </c>
       <c r="C61" t="n">
-        <v>1.2818592728662401</v>
+        <v>1.0083719837485945</v>
       </c>
       <c r="D61" t="n">
-        <v>0.383</v>
+        <v>0.125</v>
       </c>
       <c r="E61" t="n">
-        <v>0.154</v>
+        <v>0.004</v>
       </c>
       <c r="F61" t="n">
-        <v>4.616775007004686E-5</v>
+        <v>1.4756729320386793E-25</v>
       </c>
       <c r="G61" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H61" t="s">
-        <v>848</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="62">
@@ -32935,25 +35297,25 @@
         <v>67</v>
       </c>
       <c r="B62" t="n">
-        <v>1.7725871313200219E-9</v>
+        <v>8.530725225397702E-30</v>
       </c>
       <c r="C62" t="n">
-        <v>0.705821803934508</v>
+        <v>1.5871310009840243</v>
       </c>
       <c r="D62" t="n">
-        <v>0.383</v>
+        <v>0.286</v>
       </c>
       <c r="E62" t="n">
-        <v>0.15</v>
+        <v>0.027</v>
       </c>
       <c r="F62" t="n">
-        <v>5.5439435119165005E-5</v>
+        <v>2.6680696214953855E-25</v>
       </c>
       <c r="G62" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H62" t="s">
-        <v>1482</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63">
@@ -32961,25 +35323,25 @@
         <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>1.8648962303017265E-9</v>
+        <v>2.0988634520961794E-29</v>
       </c>
       <c r="C63" t="n">
-        <v>0.32935735524708826</v>
+        <v>0.9028216154651546</v>
       </c>
       <c r="D63" t="n">
-        <v>0.198</v>
+        <v>0.107</v>
       </c>
       <c r="E63" t="n">
-        <v>0.047</v>
+        <v>0.003</v>
       </c>
       <c r="F63" t="n">
-        <v>5.83264944989168E-5</v>
+        <v>6.5644053327760105E-25</v>
       </c>
       <c r="G63" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H63" t="s">
-        <v>1483</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="64">
@@ -32987,25 +35349,25 @@
         <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>1.994367763581764E-9</v>
+        <v>2.843175964930835E-29</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5901620245157264</v>
+        <v>0.54428386818339</v>
       </c>
       <c r="D64" t="n">
-        <v>0.37</v>
+        <v>0.107</v>
       </c>
       <c r="E64" t="n">
-        <v>0.14</v>
+        <v>0.003</v>
       </c>
       <c r="F64" t="n">
-        <v>6.237584617378325E-5</v>
+        <v>8.89231714791768E-25</v>
       </c>
       <c r="G64" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H64" t="s">
-        <v>1484</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="65">
@@ -33013,25 +35375,25 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>2.3813992561639293E-9</v>
+        <v>2.857009073668115E-29</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7995765847359941</v>
+        <v>0.8196026665138332</v>
       </c>
       <c r="D65" t="n">
-        <v>0.58</v>
+        <v>0.161</v>
       </c>
       <c r="E65" t="n">
-        <v>0.304</v>
+        <v>0.008</v>
       </c>
       <c r="F65" t="n">
-        <v>7.448064313578305E-5</v>
+        <v>8.935581578804396E-25</v>
       </c>
       <c r="G65" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H65" t="s">
-        <v>1485</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="66">
@@ -33039,25 +35401,25 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>4.816848066624425E-9</v>
+        <v>3.4192881351626933E-28</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5482698663558128</v>
+        <v>0.932837148440623</v>
       </c>
       <c r="D66" t="n">
-        <v>0.235</v>
+        <v>0.143</v>
       </c>
       <c r="E66" t="n">
-        <v>0.068</v>
+        <v>0.006</v>
       </c>
       <c r="F66" t="n">
-        <v>1.5065174013174551E-4</v>
+        <v>1.069416557153484E-23</v>
       </c>
       <c r="G66" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H66" t="s">
-        <v>1486</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="67">
@@ -33065,25 +35427,25 @@
         <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>6.9208575182590124E-9</v>
+        <v>1.694558662715895E-27</v>
       </c>
       <c r="C67" t="n">
-        <v>0.30436191341194524</v>
+        <v>1.2352739063421632</v>
       </c>
       <c r="D67" t="n">
-        <v>0.173</v>
+        <v>0.125</v>
       </c>
       <c r="E67" t="n">
-        <v>0.04</v>
+        <v>0.005</v>
       </c>
       <c r="F67" t="n">
-        <v>2.1645673974106887E-4</v>
+        <v>5.299901673510233E-23</v>
       </c>
       <c r="G67" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H67" t="s">
-        <v>734</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="68">
@@ -33091,25 +35453,25 @@
         <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>7.2170557958432245E-9</v>
+        <v>4.791205635751144E-25</v>
       </c>
       <c r="C68" t="n">
-        <v>0.44172534770368144</v>
+        <v>1.7012204448604453</v>
       </c>
       <c r="D68" t="n">
-        <v>0.457</v>
+        <v>0.429</v>
       </c>
       <c r="E68" t="n">
-        <v>0.191</v>
+        <v>0.073</v>
       </c>
       <c r="F68" t="n">
-        <v>2.2572063707079269E-4</v>
+        <v>1.4984974746375277E-20</v>
       </c>
       <c r="G68" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H68" t="s">
-        <v>1487</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="69">
@@ -33117,25 +35479,25 @@
         <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>7.778366569235204E-9</v>
+        <v>4.8166940862656226E-24</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6521384137412047</v>
+        <v>2.023459538136081</v>
       </c>
       <c r="D69" t="n">
-        <v>0.37</v>
+        <v>0.393</v>
       </c>
       <c r="E69" t="n">
-        <v>0.146</v>
+        <v>0.066</v>
       </c>
       <c r="F69" t="n">
-        <v>2.4327619281940024E-4</v>
+        <v>1.5064692424204362E-19</v>
       </c>
       <c r="G69" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H69" t="s">
-        <v>423</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="70">
@@ -33143,25 +35505,25 @@
         <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>9.728728160506781E-9</v>
+        <v>2.1017741603324095E-22</v>
       </c>
       <c r="C70" t="n">
-        <v>0.37228323656271967</v>
+        <v>0.8324772250935524</v>
       </c>
       <c r="D70" t="n">
-        <v>0.173</v>
+        <v>0.125</v>
       </c>
       <c r="E70" t="n">
-        <v>0.041</v>
+        <v>0.006</v>
       </c>
       <c r="F70" t="n">
-        <v>3.042757019480101E-4</v>
+        <v>6.573508863855644E-18</v>
       </c>
       <c r="G70" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H70" t="s">
-        <v>1488</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="71">
@@ -33169,25 +35531,25 @@
         <v>76</v>
       </c>
       <c r="B71" t="n">
-        <v>1.825334035141871E-8</v>
+        <v>1.1906264558085979E-21</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5688835902580274</v>
+        <v>0.8395915516795192</v>
       </c>
       <c r="D71" t="n">
-        <v>0.531</v>
+        <v>0.125</v>
       </c>
       <c r="E71" t="n">
-        <v>0.261</v>
+        <v>0.007</v>
       </c>
       <c r="F71" t="n">
-        <v>5.708914728309716E-4</v>
+        <v>3.7238033031869706E-17</v>
       </c>
       <c r="G71" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H71" t="s">
-        <v>1489</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="72">
@@ -33195,25 +35557,25 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>2.722146652225343E-8</v>
+        <v>2.1442538794245542E-20</v>
       </c>
       <c r="C72" t="n">
-        <v>0.44669807801400263</v>
+        <v>0.9184515192321207</v>
       </c>
       <c r="D72" t="n">
-        <v>0.37</v>
+        <v>0.179</v>
       </c>
       <c r="E72" t="n">
-        <v>0.146</v>
+        <v>0.015</v>
       </c>
       <c r="F72" t="n">
-        <v>8.513785869499982E-4</v>
+        <v>6.706368433288236E-16</v>
       </c>
       <c r="G72" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H72" t="s">
-        <v>1490</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="73">
@@ -33221,25 +35583,25 @@
         <v>78</v>
       </c>
       <c r="B73" t="n">
-        <v>3.730709710991818E-8</v>
+        <v>8.296697868760938E-20</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3048056162560504</v>
+        <v>1.3484790080925428</v>
       </c>
       <c r="D73" t="n">
-        <v>0.148</v>
+        <v>0.268</v>
       </c>
       <c r="E73" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001166816769209801</v>
+        <v>2.594875225433671E-15</v>
       </c>
       <c r="G73" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H73" t="s">
-        <v>1491</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="74">
@@ -33247,25 +35609,25 @@
         <v>79</v>
       </c>
       <c r="B74" t="n">
-        <v>3.8996873496413225E-8</v>
+        <v>8.323540023577764E-20</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3918651841279135</v>
+        <v>1.3588990316108012</v>
       </c>
       <c r="D74" t="n">
-        <v>0.173</v>
+        <v>0.196</v>
       </c>
       <c r="E74" t="n">
-        <v>0.044</v>
+        <v>0.019</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00121966621547382</v>
+        <v>2.6032703777741817E-15</v>
       </c>
       <c r="G74" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H74" t="s">
-        <v>1492</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="75">
@@ -33273,25 +35635,25 @@
         <v>80</v>
       </c>
       <c r="B75" t="n">
-        <v>3.913676821500444E-8</v>
+        <v>8.776267453315357E-20</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7309312296093384</v>
+        <v>2.3263042444123947</v>
       </c>
       <c r="D75" t="n">
-        <v>0.432</v>
+        <v>0.411</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2</v>
+        <v>0.086</v>
       </c>
       <c r="F75" t="n">
-        <v>0.001224041562692479</v>
+        <v>2.7448654086989112E-15</v>
       </c>
       <c r="G75" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H75" t="s">
-        <v>1493</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="76">
@@ -33299,25 +35661,25 @@
         <v>81</v>
       </c>
       <c r="B76" t="n">
-        <v>4.895573634802757E-8</v>
+        <v>2.0004801007229312E-19</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7688757791039411</v>
+        <v>1.5472068983635643</v>
       </c>
       <c r="D76" t="n">
-        <v>0.247</v>
+        <v>0.304</v>
       </c>
       <c r="E76" t="n">
-        <v>0.082</v>
+        <v>0.047</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0015311396100209102</v>
+        <v>6.25670156302104E-15</v>
       </c>
       <c r="G76" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H76" t="s">
-        <v>1494</v>
+        <v>805</v>
       </c>
     </row>
     <row r="77">
@@ -33325,25 +35687,25 @@
         <v>82</v>
       </c>
       <c r="B77" t="n">
-        <v>1.5924066216044946E-7</v>
+        <v>3.0366029115110118E-19</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4564607688365571</v>
+        <v>1.7028451049407891</v>
       </c>
       <c r="D77" t="n">
-        <v>0.173</v>
+        <v>0.161</v>
       </c>
       <c r="E77" t="n">
-        <v>0.046</v>
+        <v>0.013</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004980410949730217</v>
+        <v>9.49727926604184E-15</v>
       </c>
       <c r="G77" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H77" t="s">
-        <v>1495</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="78">
@@ -33351,25 +35713,25 @@
         <v>83</v>
       </c>
       <c r="B78" t="n">
-        <v>2.0505435073029805E-7</v>
+        <v>2.3284518445417705E-18</v>
       </c>
       <c r="C78" t="n">
-        <v>0.47777927664497993</v>
+        <v>1.7022056377463994</v>
       </c>
       <c r="D78" t="n">
-        <v>0.222</v>
+        <v>0.339</v>
       </c>
       <c r="E78" t="n">
-        <v>0.071</v>
+        <v>0.062</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0064132798734408015</v>
+        <v>7.282465988988842E-14</v>
       </c>
       <c r="G78" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H78" t="s">
-        <v>1496</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="79">
@@ -33377,25 +35739,25 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>2.3887650466254854E-7</v>
+        <v>1.4179539548801902E-17</v>
       </c>
       <c r="C79" t="n">
-        <v>0.29179306884756645</v>
+        <v>1.0571424690010331</v>
       </c>
       <c r="D79" t="n">
-        <v>0.123</v>
+        <v>0.196</v>
       </c>
       <c r="E79" t="n">
-        <v>0.026</v>
+        <v>0.021</v>
       </c>
       <c r="F79" t="n">
-        <v>0.007471101559825868</v>
+        <v>4.434792789283283E-13</v>
       </c>
       <c r="G79" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H79" t="s">
-        <v>729</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="80">
@@ -33403,25 +35765,25 @@
         <v>85</v>
       </c>
       <c r="B80" t="n">
-        <v>2.4139037434552036E-7</v>
+        <v>1.2879974509306398E-16</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4798965751416897</v>
+        <v>0.8224857520581086</v>
       </c>
       <c r="D80" t="n">
-        <v>0.358</v>
+        <v>0.179</v>
       </c>
       <c r="E80" t="n">
-        <v>0.151</v>
+        <v>0.019</v>
       </c>
       <c r="F80" t="n">
-        <v>0.007549725348030494</v>
+        <v>4.028340827530669E-12</v>
       </c>
       <c r="G80" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H80" t="s">
-        <v>1497</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="81">
@@ -33429,25 +35791,25 @@
         <v>86</v>
       </c>
       <c r="B81" t="n">
-        <v>2.488243206138954E-7</v>
+        <v>2.2776472516320764E-16</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8316693868857153</v>
+        <v>0.8834942830838176</v>
       </c>
       <c r="D81" t="n">
-        <v>0.309</v>
+        <v>0.196</v>
       </c>
       <c r="E81" t="n">
-        <v>0.125</v>
+        <v>0.023</v>
       </c>
       <c r="F81" t="n">
-        <v>0.007782229451520193</v>
+        <v>7.123569544204482E-12</v>
       </c>
       <c r="G81" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H81" t="s">
-        <v>1378</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="82">
@@ -33455,25 +35817,25 @@
         <v>87</v>
       </c>
       <c r="B82" t="n">
-        <v>2.890114505307998E-7</v>
+        <v>6.618100459679023E-16</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6324346468603812</v>
+        <v>0.6210575140932385</v>
       </c>
       <c r="D82" t="n">
-        <v>0.259</v>
+        <v>0.107</v>
       </c>
       <c r="E82" t="n">
-        <v>0.093</v>
+        <v>0.007</v>
       </c>
       <c r="F82" t="n">
-        <v>0.009039122126801295</v>
+        <v>2.0698770997692113E-11</v>
       </c>
       <c r="G82" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H82" t="s">
-        <v>1498</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="83">
@@ -33481,25 +35843,25 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>3.62432735762641E-7</v>
+        <v>6.808824707654167E-16</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3331439944663648</v>
+        <v>0.8736501489193851</v>
       </c>
       <c r="D83" t="n">
-        <v>0.173</v>
+        <v>0.107</v>
       </c>
       <c r="E83" t="n">
-        <v>0.047</v>
+        <v>0.007</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01133544624371236</v>
+        <v>2.1295280155659173E-11</v>
       </c>
       <c r="G83" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H83" t="s">
-        <v>1499</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="84">
@@ -33507,25 +35869,25 @@
         <v>89</v>
       </c>
       <c r="B84" t="n">
-        <v>3.963409230091376E-7</v>
+        <v>7.079938929489811E-16</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5800647417504277</v>
+        <v>0.48698028877076543</v>
       </c>
       <c r="D84" t="n">
-        <v>0.309</v>
+        <v>0.107</v>
       </c>
       <c r="E84" t="n">
-        <v>0.125</v>
+        <v>0.007</v>
       </c>
       <c r="F84" t="n">
-        <v>0.012395958708033788</v>
+        <v>2.2143216995872333E-11</v>
       </c>
       <c r="G84" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H84" t="s">
-        <v>1500</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="85">
@@ -33533,25 +35895,25 @@
         <v>90</v>
       </c>
       <c r="B85" t="n">
-        <v>4.0965216640111053E-7</v>
+        <v>1.272336042558807E-15</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6616371723386969</v>
+        <v>1.2841610066909233</v>
       </c>
       <c r="D85" t="n">
-        <v>0.58</v>
+        <v>0.393</v>
       </c>
       <c r="E85" t="n">
-        <v>0.339</v>
+        <v>0.089</v>
       </c>
       <c r="F85" t="n">
-        <v>0.012812281156361132</v>
+        <v>3.979358206706925E-11</v>
       </c>
       <c r="G85" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H85" t="s">
-        <v>1501</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86">
@@ -33559,25 +35921,25 @@
         <v>91</v>
       </c>
       <c r="B86" t="n">
-        <v>5.816915111326966E-7</v>
+        <v>1.7911389711716627E-15</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5052556555443325</v>
+        <v>0.8662779970817847</v>
       </c>
       <c r="D86" t="n">
-        <v>0.185</v>
+        <v>0.179</v>
       </c>
       <c r="E86" t="n">
-        <v>0.055</v>
+        <v>0.02</v>
       </c>
       <c r="F86" t="n">
-        <v>0.01819298370218622</v>
+        <v>5.6019662462364923E-11</v>
       </c>
       <c r="G86" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H86" t="s">
-        <v>1502</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="87">
@@ -33585,25 +35947,25 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>6.259299475224382E-7</v>
+        <v>2.256516732496648E-15</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4114628672277096</v>
+        <v>1.0981582560093217</v>
       </c>
       <c r="D87" t="n">
-        <v>0.198</v>
+        <v>0.161</v>
       </c>
       <c r="E87" t="n">
-        <v>0.06</v>
+        <v>0.017</v>
       </c>
       <c r="F87" t="n">
-        <v>0.019576585038711777</v>
+        <v>7.057481732556517E-11</v>
       </c>
       <c r="G87" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H87" t="s">
-        <v>1503</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="88">
@@ -33611,25 +35973,25 @@
         <v>93</v>
       </c>
       <c r="B88" t="n">
-        <v>7.14202072620449E-7</v>
+        <v>2.5672007398136587E-15</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5690886596798725</v>
+        <v>1.4752647225052007</v>
       </c>
       <c r="D88" t="n">
-        <v>0.432</v>
+        <v>0.286</v>
       </c>
       <c r="E88" t="n">
-        <v>0.215</v>
+        <v>0.051</v>
       </c>
       <c r="F88" t="n">
-        <v>0.022337384023277163</v>
+        <v>8.029177033841199E-11</v>
       </c>
       <c r="G88" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H88" t="s">
-        <v>1504</v>
+        <v>695</v>
       </c>
     </row>
     <row r="89">
@@ -33637,25 +35999,25 @@
         <v>94</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0053009295161866E-6</v>
+        <v>2.823423168218267E-15</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4797313850337711</v>
+        <v>1.042876241010379</v>
       </c>
       <c r="D89" t="n">
-        <v>0.531</v>
+        <v>0.107</v>
       </c>
       <c r="E89" t="n">
-        <v>0.285</v>
+        <v>0.007</v>
       </c>
       <c r="F89" t="n">
-        <v>0.031441791871548254</v>
+        <v>8.830538300919452E-11</v>
       </c>
       <c r="G89" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H89" t="s">
-        <v>995</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="90">
@@ -33663,25 +36025,25 @@
         <v>95</v>
       </c>
       <c r="B90" t="n">
-        <v>1.0188870074999172E-6</v>
+        <v>4.642102856048173E-15</v>
       </c>
       <c r="C90" t="n">
-        <v>0.45938441221379717</v>
+        <v>1.3921319564190782</v>
       </c>
       <c r="D90" t="n">
-        <v>0.235</v>
+        <v>0.982</v>
       </c>
       <c r="E90" t="n">
-        <v>0.082</v>
+        <v>0.988</v>
       </c>
       <c r="F90" t="n">
-        <v>0.03186671004656741</v>
+        <v>1.4518640892576264E-10</v>
       </c>
       <c r="G90" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H90" t="s">
-        <v>789</v>
+        <v>750</v>
       </c>
     </row>
     <row r="91">
@@ -33689,25 +36051,25 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>1.0473943363710116E-6</v>
+        <v>6.119081374835125E-14</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6337767279365631</v>
+        <v>0.723121315988553</v>
       </c>
       <c r="D91" t="n">
-        <v>0.63</v>
+        <v>0.125</v>
       </c>
       <c r="E91" t="n">
-        <v>0.387</v>
+        <v>0.011</v>
       </c>
       <c r="F91" t="n">
-        <v>0.03275830526433976</v>
+        <v>1.9138038907934336E-9</v>
       </c>
       <c r="G91" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H91" t="s">
-        <v>1505</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="92">
@@ -33715,25 +36077,25 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>1.1798111033745942E-6</v>
+        <v>6.323244956040546E-13</v>
       </c>
       <c r="C92" t="n">
-        <v>0.527029108674389</v>
+        <v>0.8536842239466678</v>
       </c>
       <c r="D92" t="n">
-        <v>0.543</v>
+        <v>0.161</v>
       </c>
       <c r="E92" t="n">
-        <v>0.298</v>
+        <v>0.02</v>
       </c>
       <c r="F92" t="n">
-        <v>0.036899772069143806</v>
+        <v>1.977658092451241E-8</v>
       </c>
       <c r="G92" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H92" t="s">
-        <v>1391</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="93">
@@ -33741,25 +36103,25 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>1.3789345587187179E-6</v>
+        <v>5.569204626231918E-12</v>
       </c>
       <c r="C93" t="n">
-        <v>0.49973768530693197</v>
+        <v>0.9139480158358158</v>
       </c>
       <c r="D93" t="n">
-        <v>0.506</v>
+        <v>0.179</v>
       </c>
       <c r="E93" t="n">
-        <v>0.27</v>
+        <v>0.026</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04312755725848662</v>
+        <v>1.7418244389002946E-7</v>
       </c>
       <c r="G93" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
       <c r="H93" t="s">
-        <v>1506</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="94">
@@ -33767,2461 +36129,6 @@
         <v>99</v>
       </c>
       <c r="B94" t="n">
-        <v>1.4469283675342058E-6</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.7797334536651999</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.04525413162299982</v>
-      </c>
-      <c r="G94" t="s">
-        <v>1431</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7.701565293436638E-210</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.053880594605144</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.408741561175243E-205</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.255694126034198E-156</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.1059783731634572</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.927308948584558E-152</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.05990888551268E-143</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.1317157048628936</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.3149710303294577E-139</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.776645494494359E-141</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.8083965259720507</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5.556636448580557E-137</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.2696119115449584E-126</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.569104427525907</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.268</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.970838214548012E-122</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.6545111687843606E-119</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.6033332012868031</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.1429849131489966E-114</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.8159998473275518E-109</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.3697575956919257</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5.679721122501651E-105</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.7347578192242123E-106</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.7346488556484874</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.425628555405647E-102</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7.137911037712684E-97</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.114439113943082</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.232453056155019E-92</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.5875407425132285E-96</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6769760792984963</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.1220392426284373E-91</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4.031681213422158E-93</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7930434480354789</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.260948616309914E-88</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4.990089306816319E-93</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.2105596140134682</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.5607003315998717E-88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5.292843952480778E-93</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.6626683341037594</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.655389874577888E-88</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4.748207919182691E-92</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.6896783772441857</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.4850495088035784E-87</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4.0805466963841857E-88</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9174907368861649</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.2762317847611179E-83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7.258772694712293E-88</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.6162849315473833</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.2702537479982167E-83</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.317010341376002E-84</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.4463052637210723</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4.119081543687584E-80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="n">
-        <v>8.435565774058054E-84</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6864607534320515</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.638307551494397E-79</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.675504004886614E-80</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.6709533573625173</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5.240306325683374E-76</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.3523502231126168E-79</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.964638830246369</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4.2296105578070203E-75</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.7936227432473484E-79</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0467905052865603</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.1864934491780407E-74</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3.7936227432473484E-79</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8714491675313606</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.1864934491780407E-74</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3.7936227432473484E-79</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7819826172493988</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.1864934491780407E-74</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4.643299357974429E-76</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7888128320128232</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.4522383072000825E-71</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5.206811783008224E-72</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.7813917136613124</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.554</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.6284824532536522E-67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="n">
-        <v>8.835240704184408E-68</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.8995479157109902</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.763309882640715E-63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="n">
-        <v>9.394393163950475E-68</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.6478057797313301</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.9381904059571507E-63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="n">
-        <v>7.46815902452533E-65</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.0984427634772502</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.3357414165105421E-60</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3.047541279394487E-64</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.289290893537723</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F30" t="n">
-        <v>9.531490105434196E-60</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3.067031640989436E-59</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.7820240503127325</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F31" t="n">
-        <v>9.59244816035856E-55</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4.496026075977103E-59</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2.1253297043537605</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.4061771155225987E-54</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2.3284328932836253E-58</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.1678299335607056</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F33" t="n">
-        <v>7.282406717033867E-54</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4.057965619969637E-55</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.9691299896261573</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.2691693273017036E-50</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2.079806910192427E-52</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.1885004180303864</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F35" t="n">
-        <v>6.504804092317835E-48</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="n">
-        <v>5.382118203275515E-52</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.9138402543504045</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.6833112892564501E-47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="n">
-        <v>5.57652581151096E-52</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.1020402082330438</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.7441142128081679E-47</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.3110519429979957E-51</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.0519887079409957</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4.1004460569205315E-47</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1.5510520713174643E-51</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1.1868855553915238</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4.851070458252501E-47</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2.6929234190320594E-48</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.2029214542717017</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F40" t="n">
-        <v>8.422387285364669E-44</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2.1836365173116274E-47</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1.0613581437048711</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="F41" t="n">
-        <v>6.829541571543846E-43</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1.3950560578630377E-45</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.7017543286531076</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4.3631773265724367E-41</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" t="n">
-        <v>7.899080935103243E-44</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.2923139111433732</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2.4705165532628902E-39</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="n">
-        <v>5.338129976144993E-43</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1.5412221148928122</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.6695535313391078E-38</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.0871303889543464E-42</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.2382752148304468</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3.4001090044936135E-38</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.3629014719661062E-42</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.9100668295810691</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="F46" t="n">
-        <v>4.262610643721194E-38</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" t="n">
-        <v>6.635790311964731E-42</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.2201619018692385</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2.075409777970089E-37</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.0987865750769619E-41</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.3140086821353198</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3.436564892210706E-37</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" t="n">
-        <v>3.1002840005083153E-41</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.542561737888883</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F49" t="n">
-        <v>9.696448239989808E-37</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2.328588862154507E-40</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1.2756718023856168</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="F50" t="n">
-        <v>7.282894525274435E-36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" t="n">
-        <v>3.060049551548435E-39</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1.336555081779071</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="F51" t="n">
-        <v>9.570610977422886E-35</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" t="n">
-        <v>3.920132620500882E-39</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.170828449897045</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1.2260606783878557E-34</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" t="n">
-        <v>8.626723072541224E-38</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1.515935277376142</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2.6980939081679933E-33</v>
-      </c>
-      <c r="G53" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4.12152114105368E-37</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1.501895951916069</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1.2890469520759489E-32</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" t="n">
-        <v>7.690034582795695E-37</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1.1274138038576575</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2.4051352161151815E-32</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2.3972157693578125E-35</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.9313118014189571</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7.497532040243494E-31</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" t="n">
-        <v>3.16991671847707E-35</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1.1592389830955423</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="F57" t="n">
-        <v>9.914231528708885E-31</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1.2155756511796722E-33</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.7421969543595032</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3.801834406629543E-29</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" t="n">
-        <v>7.94840385771216E-33</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.8481328496410585</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2.485942790538055E-28</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2.193544134186445E-31</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1.154336262504665</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F60" t="n">
-        <v>6.860528634081525E-27</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.718227816980046E-30</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1.0083719837485945</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1.4756729320386793E-25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" t="n">
-        <v>8.530725225397702E-30</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1.5871310009840243</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2.6680696214953855E-25</v>
-      </c>
-      <c r="G62" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H62" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" t="n">
-        <v>2.0988634520961794E-29</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.9028216154651546</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F63" t="n">
-        <v>6.5644053327760105E-25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2.843175964930835E-29</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.54428386818339</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F64" t="n">
-        <v>8.89231714791768E-25</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H64" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2.857009073668115E-29</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.8196026665138332</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="F65" t="n">
-        <v>8.935581578804396E-25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H65" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" t="n">
-        <v>3.4192881351626933E-28</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.932837148440623</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1.069416557153484E-23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H66" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1.694558662715895E-27</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1.2352739063421632</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="F67" t="n">
-        <v>5.299901673510233E-23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H67" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4.791205635751144E-25</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1.7012204448604453</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1.4984974746375277E-20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" t="n">
-        <v>4.8166940862656226E-24</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2.023459538136081</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1.5064692424204362E-19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H69" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2.1017741603324095E-22</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.8324772250935524</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F70" t="n">
-        <v>6.573508863855644E-18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H70" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1.1906264558085979E-21</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.8395915516795192</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F71" t="n">
-        <v>3.7238033031869706E-17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H71" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2.1442538794245542E-20</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.9184515192321207</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="F72" t="n">
-        <v>6.706368433288236E-16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H72" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" t="n">
-        <v>8.296697868760938E-20</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1.3484790080925428</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.268</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2.594875225433671E-15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H73" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" t="n">
-        <v>8.323540023577764E-20</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1.3588990316108012</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2.6032703777741817E-15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H74" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" t="n">
-        <v>8.776267453315357E-20</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2.3263042444123947</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2.7448654086989112E-15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H75" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2.0004801007229312E-19</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1.5472068983635643</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="F76" t="n">
-        <v>6.25670156302104E-15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H76" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" t="n">
-        <v>3.0366029115110118E-19</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1.7028451049407891</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="F77" t="n">
-        <v>9.49727926604184E-15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H77" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2.3284518445417705E-18</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1.7022056377463994</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="F78" t="n">
-        <v>7.282465988988842E-14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H78" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1.4179539548801902E-17</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1.0571424690010331</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="F79" t="n">
-        <v>4.434792789283283E-13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H79" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1.2879974509306398E-16</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.8224857520581086</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="F80" t="n">
-        <v>4.028340827530669E-12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2.2776472516320764E-16</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.8834942830838176</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="F81" t="n">
-        <v>7.123569544204482E-12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" t="n">
-        <v>6.618100459679023E-16</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.6210575140932385</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2.0698770997692113E-11</v>
-      </c>
-      <c r="G82" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" t="n">
-        <v>6.808824707654167E-16</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.8736501489193851</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2.1295280155659173E-11</v>
-      </c>
-      <c r="G83" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" t="n">
-        <v>7.079938929489811E-16</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.48698028877076543</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2.2143216995872333E-11</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1.272336042558807E-15</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.2841610066909233</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="F85" t="n">
-        <v>3.979358206706925E-11</v>
-      </c>
-      <c r="G85" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H85" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1.7911389711716627E-15</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.8662779970817847</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F86" t="n">
-        <v>5.6019662462364923E-11</v>
-      </c>
-      <c r="G86" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H86" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2.256516732496648E-15</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1.0981582560093217</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="F87" t="n">
-        <v>7.057481732556517E-11</v>
-      </c>
-      <c r="G87" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H87" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2.5672007398136587E-15</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1.4752647225052007</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="F88" t="n">
-        <v>8.029177033841199E-11</v>
-      </c>
-      <c r="G88" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H88" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2.823423168218267E-15</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.042876241010379</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F89" t="n">
-        <v>8.830538300919452E-11</v>
-      </c>
-      <c r="G89" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H89" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" t="n">
-        <v>4.642102856048173E-15</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1.3921319564190782</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.988</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1.4518640892576264E-10</v>
-      </c>
-      <c r="G90" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H90" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" t="n">
-        <v>6.119081374835125E-14</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.723121315988553</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1.9138038907934336E-9</v>
-      </c>
-      <c r="G91" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H91" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" t="n">
-        <v>6.323244956040546E-13</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.8536842239466678</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1.977658092451241E-8</v>
-      </c>
-      <c r="G92" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" t="n">
-        <v>5.569204626231918E-12</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.9139480158358158</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1.7418244389002946E-7</v>
-      </c>
-      <c r="G93" t="s">
-        <v>1508</v>
-      </c>
-      <c r="H93" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" t="n">
         <v>5.643582921780654E-12</v>
       </c>
       <c r="C94" t="n">
@@ -36237,10 +36144,10 @@
         <v>1.7650869946161173E-7</v>
       </c>
       <c r="G94" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H94" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="95">
@@ -36263,7 +36170,7 @@
         <v>3.116463186863364E-7</v>
       </c>
       <c r="G95" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H95" t="s">
         <v>1106</v>
@@ -36289,10 +36196,10 @@
         <v>3.689183714512235E-7</v>
       </c>
       <c r="G96" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H96" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="97">
@@ -36315,10 +36222,10 @@
         <v>4.6894848897556945E-7</v>
       </c>
       <c r="G97" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H97" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="98">
@@ -36341,10 +36248,10 @@
         <v>1.1486326917259733E-6</v>
       </c>
       <c r="G98" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H98" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="99">
@@ -36367,10 +36274,10 @@
         <v>1.3868496339692354E-6</v>
       </c>
       <c r="G99" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H99" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="100">
@@ -36393,10 +36300,10 @@
         <v>8.850428987783512E-6</v>
       </c>
       <c r="G100" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H100" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="101">
@@ -36419,10 +36326,10 @@
         <v>1.8027114616688457E-5</v>
       </c>
       <c r="G101" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H101" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="102">
@@ -36445,10 +36352,10 @@
         <v>1.2613062333162038E-4</v>
       </c>
       <c r="G102" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H102" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="103">
@@ -36471,7 +36378,7 @@
         <v>6.309911802478108E-4</v>
       </c>
       <c r="G103" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H103" t="s">
         <v>1339</v>
@@ -36497,10 +36404,10 @@
         <v>9.510549561294453E-4</v>
       </c>
       <c r="G104" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H104" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="105">
@@ -36523,10 +36430,10 @@
         <v>0.0010558615195507461</v>
       </c>
       <c r="G105" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H105" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="106">
@@ -36549,10 +36456,10 @@
         <v>0.0014728917611946425</v>
       </c>
       <c r="G106" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H106" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="107">
@@ -36575,10 +36482,10 @@
         <v>0.001516699748450052</v>
       </c>
       <c r="G107" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H107" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="108">
@@ -36601,10 +36508,10 @@
         <v>0.0018218115420190252</v>
       </c>
       <c r="G108" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H108" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="109">
@@ -36627,7 +36534,7 @@
         <v>0.0067862694494220865</v>
       </c>
       <c r="G109" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H109" t="s">
         <v>1334</v>
@@ -36653,7 +36560,7 @@
         <v>0.008179580699829523</v>
       </c>
       <c r="G110" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H110" t="s">
         <v>932</v>
@@ -36679,10 +36586,10 @@
         <v>0.011493010932457127</v>
       </c>
       <c r="G111" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H111" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="112">
@@ -36705,7 +36612,7 @@
         <v>0.022564681342307744</v>
       </c>
       <c r="G112" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H112" t="s">
         <v>846</v>
@@ -36731,10 +36638,10 @@
         <v>0.027178878077743083</v>
       </c>
       <c r="G113" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H113" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="114">
@@ -36757,10 +36664,10 @@
         <v>0.044667972533804244</v>
       </c>
       <c r="G114" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H114" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="115">
@@ -36783,10 +36690,10 @@
         <v>0.04844788990068332</v>
       </c>
       <c r="G115" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H115" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
   </sheetData>
